--- a/data/trans_orig/P22_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>48359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36327</v>
+        <v>35310</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63703</v>
+        <v>62059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06989740545843892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05250606622842885</v>
+        <v>0.05103653023255249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09207503079133239</v>
+        <v>0.08969942671668699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>47687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34606</v>
+        <v>36041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60822</v>
+        <v>62244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06936304912502884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05033499951782511</v>
+        <v>0.05242366170548662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08846800505009017</v>
+        <v>0.09053592292802104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -786,19 +786,19 @@
         <v>96046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78622</v>
+        <v>78768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117378</v>
+        <v>117666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06963107033799035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05699874918776932</v>
+        <v>0.05710464461250613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08509577756012458</v>
+        <v>0.08530443254609839</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>643497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>628153</v>
+        <v>629797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>655529</v>
+        <v>656546</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9301025945415611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9079249692086676</v>
+        <v>0.9103005732833129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9474939337715712</v>
+        <v>0.9489634697674474</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>648</v>
@@ -836,19 +836,19 @@
         <v>639817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>626682</v>
+        <v>625260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>652898</v>
+        <v>651463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9306369508749711</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9115319949499099</v>
+        <v>0.9094640770719791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9496650004821751</v>
+        <v>0.9475763382945134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1283</v>
@@ -857,19 +857,19 @@
         <v>1283314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1261982</v>
+        <v>1261694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300738</v>
+        <v>1300592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9303689296620097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9149042224398756</v>
+        <v>0.9146955674539018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.943001250812231</v>
+        <v>0.942895355387494</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>85999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68295</v>
+        <v>69365</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104018</v>
+        <v>106695</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08950771813973847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07108121652231432</v>
+        <v>0.07219528586692486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1082626936334097</v>
+        <v>0.1110485827685571</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -982,19 +982,19 @@
         <v>78555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61863</v>
+        <v>62744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97146</v>
+        <v>97594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08111846316088764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06388239761206904</v>
+        <v>0.06479186219846995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1003162258671109</v>
+        <v>0.1007790702394148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -1003,19 +1003,19 @@
         <v>164553</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139631</v>
+        <v>141773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190099</v>
+        <v>194921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08529657538957518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07237807090966428</v>
+        <v>0.07348850606782648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09853812790392495</v>
+        <v>0.1010378098109755</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>874798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856779</v>
+        <v>854102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892502</v>
+        <v>891432</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9104922818602615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8917373063665904</v>
+        <v>0.888951417231443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9289187834776861</v>
+        <v>0.9278047141330751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>836</v>
@@ -1053,19 +1053,19 @@
         <v>889838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>871247</v>
+        <v>870799</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>906530</v>
+        <v>905649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9188815368391123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8996837741328891</v>
+        <v>0.8992209297605849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.936117602387931</v>
+        <v>0.93520813780153</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1654</v>
@@ -1074,19 +1074,19 @@
         <v>1764638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1739092</v>
+        <v>1734270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1789560</v>
+        <v>1787418</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9147034246104249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.901461872096075</v>
+        <v>0.8989621901890245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9276219290903357</v>
+        <v>0.9265114939321736</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>84626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67393</v>
+        <v>67334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103411</v>
+        <v>102330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1248934148209749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09946112765801213</v>
+        <v>0.09937416181982434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1526177269876582</v>
+        <v>0.1510218212604039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>74914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60692</v>
+        <v>59484</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92464</v>
+        <v>92112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1095492588609718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08875128722121846</v>
+        <v>0.08698472049357027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1352132709854046</v>
+        <v>0.1346981212944557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -1220,19 +1220,19 @@
         <v>159540</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137126</v>
+        <v>136239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189512</v>
+        <v>184289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.117186062201132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1007223944707724</v>
+        <v>0.1000713464861038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1392014815350202</v>
+        <v>0.1353647998372187</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>592956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>574171</v>
+        <v>575252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610189</v>
+        <v>610248</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8751065851790252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8473822730123417</v>
+        <v>0.8489781787395959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9005388723419878</v>
+        <v>0.9006258381801756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>621</v>
@@ -1270,19 +1270,19 @@
         <v>608927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>591377</v>
+        <v>591729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>623149</v>
+        <v>624357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8904507411390281</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8647867290145959</v>
+        <v>0.8653018787055441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9112487127787818</v>
+        <v>0.9130152795064297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1182</v>
@@ -1291,19 +1291,19 @@
         <v>1201883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1171911</v>
+        <v>1177134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1224297</v>
+        <v>1225184</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.882813937798868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8607985184649799</v>
+        <v>0.8646352001627815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8992776055292276</v>
+        <v>0.8999286535138964</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>127410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106933</v>
+        <v>108998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149547</v>
+        <v>149532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1355570494684189</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1137706590722045</v>
+        <v>0.1159675085801531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1591092195752135</v>
+        <v>0.1590935581635897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -1416,19 +1416,19 @@
         <v>120516</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100444</v>
+        <v>99944</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143489</v>
+        <v>142427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1161680358958099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09681982414036176</v>
+        <v>0.09633799633413394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1383114588683184</v>
+        <v>0.1372879778813351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>251</v>
@@ -1437,19 +1437,19 @@
         <v>247926</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222269</v>
+        <v>219546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278455</v>
+        <v>278599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1253843608856056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1124086435359557</v>
+        <v>0.1110316670181379</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1408237078887418</v>
+        <v>0.1408966205640875</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>812490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>790353</v>
+        <v>790368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>832967</v>
+        <v>830902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8644429505315812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8408907804247865</v>
+        <v>0.8409064418364103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8862293409277957</v>
+        <v>0.8840324914198469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>881</v>
@@ -1487,19 +1487,19 @@
         <v>916916</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>893943</v>
+        <v>895005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>936988</v>
+        <v>937488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8838319641041902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8616885411316816</v>
+        <v>0.8627120221186649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9031801758596383</v>
+        <v>0.903662003665866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1737</v>
@@ -1508,19 +1508,19 @@
         <v>1729405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1698876</v>
+        <v>1698732</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1755062</v>
+        <v>1757785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8746156391143943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8591762921112581</v>
+        <v>0.8591033794359124</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8875913564640443</v>
+        <v>0.8889683329818621</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>346393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1059262875168363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>309</v>
@@ -1633,19 +1633,19 @@
         <v>321673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09524916965129535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>647</v>
@@ -1654,19 +1654,19 @@
         <v>668066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1005017672187822</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2923742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2887315</v>
+        <v>2888833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2958214</v>
+        <v>2957232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8940737124831637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.882934412123113</v>
+        <v>0.8833986824589677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9046152103530085</v>
+        <v>0.9043149887590172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2986</v>
@@ -1704,19 +1704,19 @@
         <v>3055497</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3018541</v>
+        <v>3021398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3088166</v>
+        <v>3089956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9047508303487046</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8938078628096006</v>
+        <v>0.8946538367794621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9144242280935928</v>
+        <v>0.9149541113433814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5856</v>
@@ -1725,19 +1725,19 @@
         <v>5979238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5926081</v>
+        <v>5926870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6025584</v>
+        <v>6029587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8994982327812178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8915014109208563</v>
+        <v>0.8916200667232724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9064703715896233</v>
+        <v>0.9070726215153936</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>48491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34404</v>
+        <v>34926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64272</v>
+        <v>63750</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06893144493161379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04890634170518984</v>
+        <v>0.04964791144093553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09136376701108866</v>
+        <v>0.09062203396820005</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2090,19 +2090,19 @@
         <v>27306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17783</v>
+        <v>17890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38756</v>
+        <v>38264</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03917413965540441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02551214393571791</v>
+        <v>0.02566461070048284</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05560040911789373</v>
+        <v>0.05489489827776844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -2111,19 +2111,19 @@
         <v>75797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59867</v>
+        <v>60040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96952</v>
+        <v>95580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05412098541893273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04274660609705942</v>
+        <v>0.04286997177769331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06922553521503938</v>
+        <v>0.06824619617667851</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>654978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>639197</v>
+        <v>639719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669065</v>
+        <v>668543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9310685550683861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9086362329889116</v>
+        <v>0.9093779660317999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9510936582948102</v>
+        <v>0.9503520885590645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>624</v>
@@ -2161,19 +2161,19 @@
         <v>669744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>658294</v>
+        <v>658786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>679267</v>
+        <v>679160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9608258603445956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9443995908821061</v>
+        <v>0.9451051017222325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.974487856064282</v>
+        <v>0.9743353892995172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1255</v>
@@ -2182,19 +2182,19 @@
         <v>1324722</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1303567</v>
+        <v>1304939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340652</v>
+        <v>1340479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9458790145810673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9307744647849606</v>
+        <v>0.9317538038233215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9572533939029405</v>
+        <v>0.9571300282223066</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>89074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69828</v>
+        <v>70106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108585</v>
+        <v>108802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0875876610366715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06866323570412987</v>
+        <v>0.06893597077195826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1067737198525566</v>
+        <v>0.1069864259763376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2307,19 +2307,19 @@
         <v>61250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46993</v>
+        <v>47730</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78188</v>
+        <v>77826</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05933973817406363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04552811497923175</v>
+        <v>0.04624163468598082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07575018426170059</v>
+        <v>0.07539900776026005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -2328,19 +2328,19 @@
         <v>150323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127874</v>
+        <v>125947</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178291</v>
+        <v>180297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07335880679279691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06240365377180824</v>
+        <v>0.06146324482707665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08700711627153919</v>
+        <v>0.08798619251922349</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>927892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>908381</v>
+        <v>908164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947138</v>
+        <v>946860</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9124123389633285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8932262801474428</v>
+        <v>0.893013574023662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9313367642958698</v>
+        <v>0.9310640292280417</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>884</v>
@@ -2378,19 +2378,19 @@
         <v>970934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>953996</v>
+        <v>954358</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>985191</v>
+        <v>984454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9406602618259363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9242498157382989</v>
+        <v>0.92460099223974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9544718850207679</v>
+        <v>0.9537583653140193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1742</v>
@@ -2399,19 +2399,19 @@
         <v>1898827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1870859</v>
+        <v>1868853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1921276</v>
+        <v>1923203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9266411932072031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9129928837284608</v>
+        <v>0.9120138074807757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9375963462281918</v>
+        <v>0.9385367551729231</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>80639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63542</v>
+        <v>64640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100401</v>
+        <v>102384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1064363785895608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08386961431330867</v>
+        <v>0.08531957899950342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1325210622555531</v>
+        <v>0.1351385055954959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -2524,19 +2524,19 @@
         <v>73678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56616</v>
+        <v>55630</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94573</v>
+        <v>94552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09480264393908025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07284848624044538</v>
+        <v>0.07158028878728337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.12168804170564</v>
+        <v>0.1216609571240033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2545,19 +2545,19 @@
         <v>154317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130294</v>
+        <v>129051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>183058</v>
+        <v>181631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1005454143267632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08489321555479848</v>
+        <v>0.08408318425641409</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1192715296307691</v>
+        <v>0.1183420331503411</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>676984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>657222</v>
+        <v>655239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694081</v>
+        <v>692983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8935636214104392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8674789377444467</v>
+        <v>0.8648614944045039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9161303856866914</v>
+        <v>0.9146804210004966</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -2595,19 +2595,19 @@
         <v>703496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682601</v>
+        <v>682622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720558</v>
+        <v>721544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9051973560609198</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8783119582943599</v>
+        <v>0.8783390428759968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9271515137595546</v>
+        <v>0.9284197112127167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1267</v>
@@ -2616,19 +2616,19 @@
         <v>1380480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1351739</v>
+        <v>1353166</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1404503</v>
+        <v>1405746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8994545856732368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.880728470369231</v>
+        <v>0.8816579668496588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9151067844452017</v>
+        <v>0.9159168157435857</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>98448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79893</v>
+        <v>80378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120516</v>
+        <v>119909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1038767356424028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08429874698610858</v>
+        <v>0.08481042683512105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1271619914142473</v>
+        <v>0.1265212445033551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -2741,19 +2741,19 @@
         <v>109746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88930</v>
+        <v>90448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132664</v>
+        <v>130998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1043310292324762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08454241639200109</v>
+        <v>0.08598569258690911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1261183516870328</v>
+        <v>0.1245347979826159</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -2762,19 +2762,19 @@
         <v>208194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>179859</v>
+        <v>182180</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237690</v>
+        <v>240303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1041157145558984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08994581502161417</v>
+        <v>0.09110632901523012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1188662671806971</v>
+        <v>0.1201732606928212</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>849291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>827223</v>
+        <v>827830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>867846</v>
+        <v>867361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8961232643575973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8728380085857527</v>
+        <v>0.8734787554966449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9157012530138914</v>
+        <v>0.915189573164879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>902</v>
@@ -2812,19 +2812,19 @@
         <v>942155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>919237</v>
+        <v>920903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962971</v>
+        <v>961453</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8956689707675238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8738816483129672</v>
+        <v>0.8754652020173841</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9154575836079989</v>
+        <v>0.9140143074130909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1718</v>
@@ -2833,19 +2833,19 @@
         <v>1791446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1761950</v>
+        <v>1759337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1819781</v>
+        <v>1817460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8958842854441016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.881133732819303</v>
+        <v>0.8798267393071788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9100541849783859</v>
+        <v>0.9088936709847699</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>316652</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09243148378198994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -2958,19 +2958,19 @@
         <v>271980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07643516244419479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>524</v>
@@ -2979,19 +2979,19 @@
         <v>588632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08428157162442802</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3109146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3072008</v>
+        <v>3071057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3143983</v>
+        <v>3142311</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.90756851621801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8967278388515157</v>
+        <v>0.896450232177622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9177373259568122</v>
+        <v>0.9172494372151195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3056</v>
@@ -3029,19 +3029,19 @@
         <v>3286329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3252320</v>
+        <v>3252728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3318579</v>
+        <v>3320729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9235648375558052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9140072681604342</v>
+        <v>0.9141219747364527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9326280270778129</v>
+        <v>0.9332323788382852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5982</v>
@@ -3050,19 +3050,19 @@
         <v>6395475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6345602</v>
+        <v>6340753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6444841</v>
+        <v>6439024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9157184283755719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9085774623473828</v>
+        <v>0.9078831474458107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9227866824544024</v>
+        <v>0.9219537966103962</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>31535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21276</v>
+        <v>20302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44601</v>
+        <v>44835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04681405692298043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03158425879871242</v>
+        <v>0.03013878229904017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06620929200334601</v>
+        <v>0.0665564144475651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3415,19 +3415,19 @@
         <v>23802</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15011</v>
+        <v>16134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35564</v>
+        <v>36025</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03537551517660679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02231048474347709</v>
+        <v>0.02397938050349392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05285667613975911</v>
+        <v>0.05354109606048145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -3436,19 +3436,19 @@
         <v>55337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40996</v>
+        <v>42669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71749</v>
+        <v>74793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04109815343934529</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03044703456065758</v>
+        <v>0.0316895329904992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05328706299417751</v>
+        <v>0.05554758758789523</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>642097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>629031</v>
+        <v>628797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>652356</v>
+        <v>653330</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9531859430770195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9337907079966543</v>
+        <v>0.9334435855524352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9684157412012876</v>
+        <v>0.9698612177009603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>643</v>
@@ -3486,19 +3486,19 @@
         <v>649037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637275</v>
+        <v>636814</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657828</v>
+        <v>656705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9646244848233932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9471433238602407</v>
+        <v>0.9464589039395186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9776895152565229</v>
+        <v>0.9760206194965061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1266</v>
@@ -3507,19 +3507,19 @@
         <v>1291134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1274722</v>
+        <v>1271678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1305475</v>
+        <v>1303802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9589018465606547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9467129370058226</v>
+        <v>0.9444524124121046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9695529654393427</v>
+        <v>0.9683104670095009</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>91474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72097</v>
+        <v>73737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111276</v>
+        <v>112675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0895492197952807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07058014529347094</v>
+        <v>0.07218481646375656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1089344084760573</v>
+        <v>0.110303689117976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -3632,19 +3632,19 @@
         <v>72842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55744</v>
+        <v>55959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90612</v>
+        <v>90505</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0699721729154178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05354858884658856</v>
+        <v>0.05375473741220392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08704286167987289</v>
+        <v>0.08693995760190672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -3653,19 +3653,19 @@
         <v>164316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138660</v>
+        <v>139821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190811</v>
+        <v>192726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07966810227679894</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06722880241115621</v>
+        <v>0.06779212324102968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09251438413121152</v>
+        <v>0.09344266907857127</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>930022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>910220</v>
+        <v>908821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>949399</v>
+        <v>947759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9104507802047193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8910655915239424</v>
+        <v>0.8896963108820236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.929419854706529</v>
+        <v>0.9278151835362427</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>907</v>
@@ -3703,19 +3703,19 @@
         <v>968165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>950395</v>
+        <v>950502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>985263</v>
+        <v>985048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9300278270845822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9129571383201266</v>
+        <v>0.9130600423980935</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9464514111534114</v>
+        <v>0.9462452625877961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1780</v>
@@ -3724,19 +3724,19 @@
         <v>1898187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1871692</v>
+        <v>1869777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1923843</v>
+        <v>1922682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9203318977232011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9074856158687887</v>
+        <v>0.9065573309214288</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9327711975888439</v>
+        <v>0.9322078767589704</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>37365</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26237</v>
+        <v>25990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49901</v>
+        <v>50045</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04931277507228585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03462656785999874</v>
+        <v>0.03430155857317527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06585827086288285</v>
+        <v>0.06604819195175965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3849,19 +3849,19 @@
         <v>51133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38945</v>
+        <v>38429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67116</v>
+        <v>66453</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06546118562038152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04985844141958137</v>
+        <v>0.04919725028682418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08592332972194201</v>
+        <v>0.08507458279314348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -3870,19 +3870,19 @@
         <v>88497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71023</v>
+        <v>70730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108027</v>
+        <v>108642</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05750979587162691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04615408728639191</v>
+        <v>0.04596383143560703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07020106202977236</v>
+        <v>0.07060072469166029</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>720341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>707805</v>
+        <v>707661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>731469</v>
+        <v>731716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9506872249277142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9341417291371171</v>
+        <v>0.9339518080482413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9653734321400014</v>
+        <v>0.9656984414268248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>729979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713996</v>
+        <v>714659</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742167</v>
+        <v>742683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9345388143796185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9140766702780579</v>
+        <v>0.9149254172068571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9501415585804187</v>
+        <v>0.9508027497131758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1344</v>
@@ -3941,19 +3941,19 @@
         <v>1450321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1430791</v>
+        <v>1430176</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1467795</v>
+        <v>1468088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9424902041283731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9297989379702276</v>
+        <v>0.9293992753083398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9538459127136081</v>
+        <v>0.954036168564393</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>118202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97742</v>
+        <v>101598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138603</v>
+        <v>140926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.126202940567793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1043584437821923</v>
+        <v>0.1084747976901763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1479852635993119</v>
+        <v>0.1504655133639292</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -4066,19 +4066,19 @@
         <v>126389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105649</v>
+        <v>105155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148998</v>
+        <v>150996</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210882149054093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1012179720257786</v>
+        <v>0.1007444651099014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1427485902247145</v>
+        <v>0.1446631722080105</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>227</v>
@@ -4087,19 +4087,19 @@
         <v>244591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217105</v>
+        <v>215913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275536</v>
+        <v>277261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1235071768199719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1096278634902761</v>
+        <v>0.1090257144143267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1391325967527425</v>
+        <v>0.1400039579316508</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>818401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>798000</v>
+        <v>795677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>838861</v>
+        <v>835005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.873797059432207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8520147364006881</v>
+        <v>0.8495344866360707</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8956415562178077</v>
+        <v>0.8915252023098231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>847</v>
@@ -4137,19 +4137,19 @@
         <v>917390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>894781</v>
+        <v>892783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>938130</v>
+        <v>938624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8789117850945907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8572514097752855</v>
+        <v>0.8553368277919895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8987820279742215</v>
+        <v>0.8992555348900986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1663</v>
@@ -4158,19 +4158,19 @@
         <v>1735791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1704846</v>
+        <v>1703121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1763277</v>
+        <v>1764469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8764928231800281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8608674032472574</v>
+        <v>0.8599960420683491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8903721365097239</v>
+        <v>0.8909742855856733</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>278576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0821895478111971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -4283,19 +4283,19 @@
         <v>274165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0774754943763185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -4304,19 +4304,19 @@
         <v>552742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07978172802176216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3110861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3077094</v>
+        <v>3075807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3143516</v>
+        <v>3144066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9178104521888029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9078479850757621</v>
+        <v>0.9074684011413594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9274448690824172</v>
+        <v>0.9276072157095999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3081</v>
@@ -4354,19 +4354,19 @@
         <v>3264572</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3230764</v>
+        <v>3230362</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3296330</v>
+        <v>3296076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9225245056236815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9129709822853592</v>
+        <v>0.9128572904951313</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9314989525322872</v>
+        <v>0.9314271954290687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6053</v>
@@ -4375,19 +4375,19 @@
         <v>6375433</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6325513</v>
+        <v>6327749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6422404</v>
+        <v>6420692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9202182719782378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9130129192819026</v>
+        <v>0.9133355622494999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.926997931338953</v>
+        <v>0.9267508917038481</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>45435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34291</v>
+        <v>32872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60946</v>
+        <v>58684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06578073765532899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04964543986506299</v>
+        <v>0.04759180342000931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08823707326175539</v>
+        <v>0.08496147716582524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -4740,19 +4740,19 @@
         <v>44796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35692</v>
+        <v>34558</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57188</v>
+        <v>56412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06101458153689198</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04861499975303489</v>
+        <v>0.04707061223710788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07789402385336673</v>
+        <v>0.07683666746437223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -4761,19 +4761,19 @@
         <v>90231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73263</v>
+        <v>74058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107456</v>
+        <v>108242</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06332495711649049</v>
+        <v>0.06332495711649047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05141691523090013</v>
+        <v>0.05197480559072359</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07541379477425796</v>
+        <v>0.07596518282722795</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>645275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>629764</v>
+        <v>632026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>656419</v>
+        <v>657838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9342192623446709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9117629267382443</v>
+        <v>0.9150385228341751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9503545601349369</v>
+        <v>0.9524081965799908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1164</v>
@@ -4811,19 +4811,19 @@
         <v>689384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>676992</v>
+        <v>677768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>698488</v>
+        <v>699622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9389854184631078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9221059761466336</v>
+        <v>0.9231633325356279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9513850002469653</v>
+        <v>0.952929387762892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1847</v>
@@ -4832,19 +4832,19 @@
         <v>1334658</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1317433</v>
+        <v>1316647</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1351626</v>
+        <v>1350831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9366750428835096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9245862052257421</v>
+        <v>0.9240348171727721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9485830847690998</v>
+        <v>0.9480251944092764</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>132127</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106667</v>
+        <v>106785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160285</v>
+        <v>162234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1259650263019226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1016923946914581</v>
+        <v>0.1018053998036301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1528102406796993</v>
+        <v>0.1546684662529083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -4957,19 +4957,19 @@
         <v>119106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102817</v>
+        <v>102912</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139719</v>
+        <v>137920</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.111161103669408</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09595829543751784</v>
+        <v>0.09604705741614086</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1303992644075891</v>
+        <v>0.1287195181046129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -4978,19 +4978,19 @@
         <v>251233</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222407</v>
+        <v>222315</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286215</v>
+        <v>289081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1184843214077169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1048894985594019</v>
+        <v>0.104846401006168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1349822419809924</v>
+        <v>0.1363337991691847</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>916790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888632</v>
+        <v>886683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942250</v>
+        <v>942132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8740349736980775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8471897593203008</v>
+        <v>0.8453315337470924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8983076053085418</v>
+        <v>0.89819460019637</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1348</v>
@@ -5028,19 +5028,19 @@
         <v>952368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>931755</v>
+        <v>933554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>968657</v>
+        <v>968562</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8888388963305921</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8696007355924106</v>
+        <v>0.8712804818953872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9040417045624821</v>
+        <v>0.9039529425838593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2208</v>
@@ -5049,19 +5049,19 @@
         <v>1869158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1834176</v>
+        <v>1831310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1897984</v>
+        <v>1898076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.881515678592283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8650177580190076</v>
+        <v>0.8636662008308154</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8951105014405979</v>
+        <v>0.8951535989938322</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>115619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93693</v>
+        <v>95022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138304</v>
+        <v>139286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1439710589214819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1166678027346455</v>
+        <v>0.1183229851828612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.172218596153487</v>
+        <v>0.1734411617425357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -5174,19 +5174,19 @@
         <v>121317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103238</v>
+        <v>103851</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140503</v>
+        <v>142343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1493578171589727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1271001626347216</v>
+        <v>0.1278543379036662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1729781670153983</v>
+        <v>0.175243487560601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -5195,19 +5195,19 @@
         <v>236937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211342</v>
+        <v>209288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>269517</v>
+        <v>267881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1466797541218944</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1308351402749133</v>
+        <v>0.1295633836824335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1668490024765252</v>
+        <v>0.1658363456698904</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>687454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664769</v>
+        <v>663787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>709380</v>
+        <v>708051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.856028941078518</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8277814038465129</v>
+        <v>0.8265588382574645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8833321972653543</v>
+        <v>0.8816770148171393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>892</v>
@@ -5245,19 +5245,19 @@
         <v>690942</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671756</v>
+        <v>669916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>709021</v>
+        <v>708408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8506421828410273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8270218329846016</v>
+        <v>0.8247565124393991</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8728998373652784</v>
+        <v>0.8721456620963336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1472</v>
@@ -5266,19 +5266,19 @@
         <v>1378395</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1345815</v>
+        <v>1347451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1403990</v>
+        <v>1406044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8533202458781056</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8331509975234747</v>
+        <v>0.8341636543301096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8691648597250865</v>
+        <v>0.8704366163175664</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>182928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158485</v>
+        <v>159459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>209719</v>
+        <v>211179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1847642919368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1600758364771594</v>
+        <v>0.161059363030668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2118244812195413</v>
+        <v>0.2132987991662837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>296</v>
@@ -5391,19 +5391,19 @@
         <v>208608</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186228</v>
+        <v>187341</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233442</v>
+        <v>233278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1867148311140572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1666837814001487</v>
+        <v>0.167679908123063</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2089425416201067</v>
+        <v>0.2087956450660281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>494</v>
@@ -5412,19 +5412,19 @@
         <v>391536</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>357481</v>
+        <v>358388</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424778</v>
+        <v>425818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1857984254920798</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1696382830135852</v>
+        <v>0.1700685257498485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2015732549850319</v>
+        <v>0.2020664068083506</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>807134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>780343</v>
+        <v>778883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>831577</v>
+        <v>830603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8152357080632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7881755187804589</v>
+        <v>0.786701200833716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8399241635228405</v>
+        <v>0.838940636969332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1264</v>
@@ -5462,19 +5462,19 @@
         <v>908645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>883811</v>
+        <v>883975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>931025</v>
+        <v>929912</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8132851688859429</v>
+        <v>0.8132851688859428</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7910574583798935</v>
+        <v>0.7912043549339718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8333162185998516</v>
+        <v>0.8323200918769368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2072</v>
@@ -5483,19 +5483,19 @@
         <v>1715779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1682537</v>
+        <v>1681497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1749834</v>
+        <v>1748927</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8142015745079202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7984267450149686</v>
+        <v>0.7979335931916497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8303617169864149</v>
+        <v>0.8299314742501517</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>476110</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.134769816351685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>697</v>
@@ -5608,19 +5608,19 @@
         <v>493827</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1142</v>
@@ -5629,19 +5629,19 @@
         <v>969937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1334543382623585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3056652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3012346</v>
+        <v>3006665</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3100294</v>
+        <v>3102459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8652301836483149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8526887270690275</v>
+        <v>0.8510805352248775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.877583696804938</v>
+        <v>0.8781963794397845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4668</v>
@@ -5679,19 +5679,19 @@
         <v>3241339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3202298</v>
+        <v>3202732</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3273733</v>
+        <v>3276371</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8677898558771628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8573376338349792</v>
+        <v>0.8574538555644263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8764626008995116</v>
+        <v>0.877168771159616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7599</v>
@@ -5700,19 +5700,19 @@
         <v>6297991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6235929</v>
+        <v>6232188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6353567</v>
+        <v>6351838</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8665456617376416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8580064442108081</v>
+        <v>0.8574917015590726</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8741923621555734</v>
+        <v>0.8739544354290948</v>
       </c>
     </row>
     <row r="18">
